--- a/Messung.xlsx
+++ b/Messung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GitHub\Module_SixSigmaProblemloesung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42F6CD9-623E-4D29-9829-4E57F82704EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672C0254-0572-4EAF-B130-B8D7DB9117B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSA1" sheetId="1" r:id="rId1"/>
@@ -122,12 +122,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -152,11 +158,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -441,16 +448,19 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B23"/>
+      <selection activeCell="C2" sqref="C2:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -663,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292C8ACC-CF47-4605-9DA8-891CF83A0370}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,19 +685,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -702,7 +712,7 @@
         <v>3.34</v>
       </c>
       <c r="D2" s="1">
-        <v>3.3629308500000001</v>
+        <v>3.35</v>
       </c>
       <c r="E2" s="1">
         <v>3.35</v>
@@ -918,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="D14" s="1">
         <v>3.3967291499999996</v>
@@ -942,7 +952,7 @@
         <v>3.43</v>
       </c>
       <c r="E15" s="1">
-        <v>3.4441852499999994</v>
+        <v>3.43</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1066,7 +1076,7 @@
         <v>3.4128500000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="F21" s="1"/>
       <c r="H21" s="1"/>
@@ -1113,16 +1123,16 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C1" sqref="C1:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1336,22 +1346,23 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C21"/>
+      <selection activeCell="D2" sqref="D2:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1455,234 +1466,234 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>3.51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>3.2753410000000001</v>
+        <v>3.4271780000000005</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>3.1777315000000002</v>
+        <v>3.5030965000000003</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>3.188577</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>3.2644954999999998</v>
+        <v>3.4380235000000003</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>3.2319590000000002</v>
+        <v>3.5356329999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>3.4271780000000005</v>
+        <v>3.3080944100000003</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>3.5030965000000003</v>
+        <v>3.2095088150000004</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>3.57</v>
+        <v>3.2204627700000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>3.4380235000000003</v>
+        <v>3.2971404549999996</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="1">
-        <v>3.5356329999999998</v>
+      <c r="C21" s="3">
+        <v>3.2642785900000004</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="1">
-        <v>3.6549335000000003</v>
+        <v>3.5452854950000003</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="1">
-        <v>3.7</v>
+        <v>3.589</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="1">
-        <v>3.56</v>
+        <v>3.4531999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="1">
-        <v>3.53</v>
+        <v>3.4240999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="1">
-        <v>3.55</v>
+        <v>3.4434999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="1">
-        <v>3.49</v>
+        <v>3.3853</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="1">
-        <v>3.47</v>
+        <v>3.3658999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="1">
-        <v>3.41</v>
+        <v>3.3077000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="1">
-        <v>3.5039641399999999</v>
+        <v>3.3988452157999998</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="1">
-        <v>3.52</v>
+        <v>3.4144000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1693,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B3910F-0FEF-4D68-AF55-1969CB3D53E4}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1707,19 +1718,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1736,6 +1747,9 @@
       <c r="D2">
         <v>40</v>
       </c>
+      <c r="E2" s="1">
+        <v>5.1282000000000005</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1750,6 +1764,9 @@
       <c r="D3">
         <v>40</v>
       </c>
+      <c r="E3" s="1">
+        <v>5.0666000000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1764,6 +1781,9 @@
       <c r="D4">
         <v>40</v>
       </c>
+      <c r="E4" s="1">
+        <v>4.8048000000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1778,19 +1798,25 @@
       <c r="D5">
         <v>40</v>
       </c>
+      <c r="E5" s="1">
+        <v>4.8201999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <v>80</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="2">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2">
         <v>40</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.5738000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1806,6 +1832,9 @@
       <c r="D7">
         <v>60</v>
       </c>
+      <c r="E7" s="1">
+        <v>5.1128</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1820,6 +1849,9 @@
       <c r="D8">
         <v>60</v>
       </c>
+      <c r="E8" s="1">
+        <v>4.8972000000000007</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1834,6 +1866,9 @@
       <c r="D9">
         <v>60</v>
       </c>
+      <c r="E9" s="1">
+        <v>4.851</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1848,19 +1883,25 @@
       <c r="D10">
         <v>60</v>
       </c>
+      <c r="E10" s="1">
+        <v>4.9280000000000008</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>60</v>
-      </c>
-      <c r="C11">
-        <v>80</v>
-      </c>
-      <c r="D11">
-        <v>60</v>
+      <c r="B11" s="2">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5.0049999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1876,6 +1917,9 @@
       <c r="D12">
         <v>40</v>
       </c>
+      <c r="E12" s="1">
+        <v>4.4198000000000004</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1890,6 +1934,9 @@
       <c r="D13">
         <v>40</v>
       </c>
+      <c r="E13" s="1">
+        <v>4.0964</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1904,6 +1951,9 @@
       <c r="D14">
         <v>40</v>
       </c>
+      <c r="E14" s="1">
+        <v>4.2042000000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1918,22 +1968,28 @@
       <c r="D15">
         <v>40</v>
       </c>
+      <c r="E15" s="1">
+        <v>4.2658000000000005</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>60</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="2">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2">
         <v>120</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="3">
+        <v>4.2350000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1946,8 +2002,11 @@
       <c r="D17">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>4.2504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1960,8 +2019,11 @@
       <c r="D18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>4.4198000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1974,8 +2036,11 @@
       <c r="D19">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>4.3890000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1988,22 +2053,28 @@
       <c r="D20">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="E20" s="1">
+        <v>4.6353999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>60</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="2">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2">
         <v>120</v>
       </c>
-      <c r="D21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="2">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4.5275999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2016,8 +2087,12 @@
       <c r="D22">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="1">
+        <v>5.3701950267998368</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2030,8 +2105,12 @@
       <c r="D23">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="1">
+        <v>5.4293707295744902</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2044,8 +2123,12 @@
       <c r="D24">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="1">
+        <v>5.5329282094301346</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2058,22 +2141,30 @@
       <c r="D25">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="E25" s="1">
+        <v>5.65</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>80</v>
-      </c>
-      <c r="C26">
-        <v>80</v>
-      </c>
-      <c r="D26">
+      <c r="B26" s="2">
+        <v>80</v>
+      </c>
+      <c r="C26" s="2">
+        <v>80</v>
+      </c>
+      <c r="D26" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="3">
+        <v>5.3258132497188466</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2086,8 +2177,12 @@
       <c r="D27">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="1">
+        <v>5.1482861413948848</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2100,8 +2195,12 @@
       <c r="D28">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="1">
+        <v>5.3258132497188466</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2114,8 +2213,12 @@
       <c r="D29">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="1">
+        <v>5.09</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2128,22 +2231,30 @@
       <c r="D30">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="E30" s="1">
+        <v>5.3554011011061737</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>80</v>
-      </c>
-      <c r="C31">
-        <v>80</v>
-      </c>
-      <c r="D31">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>80</v>
+      </c>
+      <c r="C31" s="2">
+        <v>80</v>
+      </c>
+      <c r="D31" s="2">
+        <v>60</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5.5329282094301346</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2156,8 +2267,11 @@
       <c r="D32">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="1">
+        <v>5.1590000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2170,8 +2284,11 @@
       <c r="D33">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="1">
+        <v>4.8972000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2184,8 +2301,11 @@
       <c r="D34">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="1">
+        <v>5.2976000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2198,22 +2318,28 @@
       <c r="D35">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="E35" s="1">
+        <v>4.8201999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>80</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="2">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2">
         <v>120</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="3">
+        <v>5.1590000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2226,8 +2352,11 @@
       <c r="D37">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="1">
+        <v>4.4352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2240,8 +2369,11 @@
       <c r="D38">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="1">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2254,8 +2386,11 @@
       <c r="D39">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="1">
+        <v>4.6816000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2268,8 +2403,11 @@
       <c r="D40">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="1">
+        <v>4.774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2281,6 +2419,9 @@
       </c>
       <c r="D41">
         <v>60</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4.7124000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -2290,224 +2431,253 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC8707E-CEA8-4BB2-80EF-39220B3B6414}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.3451849999999999</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>5.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.272532</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.16</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>5.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.3140480000000005</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5.2435790000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.4423106441000009</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.376322</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.3867010000000004</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.1479840000000001</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5.34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.5423859999999996</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>5.2620009999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.4614308379000001</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>5.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.3140480000000005</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>5.28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.4801120000000001</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.5320070000000001</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.1791210000000003</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.552765</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>5.29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.4904910000000005</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.4489750000000008</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>5.37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.5735230000000007</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>5.3891359999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.5933842544000001</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.324427</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>5.2774200000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.477434218</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>5.38565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.5897661350000005</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>5.41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.6150390000000003</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.3451849999999999</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>5.31</v>
-      </c>
+        <v>5.5112490000000003</v>
+      </c>
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
